--- a/nifi/application/config/xlsx_config/VO_CA_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_CA_CONFIG.xlsx
@@ -21,6 +21,7 @@
     <sheet name="LETGO" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="WHEELS" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="KIJIJIAUTOS" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="FACEBOOK" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="72">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -208,7 +209,54 @@
     <t xml:space="preserve">expect_column_values_to_be_in_set_2</t>
   </si>
   <si>
-    <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',’particuliers’], 'mostly' : 0.95}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">particuliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">], 'mostly' : 0.95}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VILLE</t>
@@ -286,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -329,6 +377,12 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -459,7 +513,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,7 +1208,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -1530,8 +1584,55 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
